--- a/Budongo cognition/ASP2015tables.xlsx
+++ b/Budongo cognition/ASP2015tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1229179\GitHub\R\Budongo cognition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diapadion\Documents\GitHub\R\Budongo cognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -610,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -651,9 +651,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -664,9 +661,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -730,6 +724,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,10 +1033,10 @@
     <row r="3" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="2"/>
@@ -1146,163 +1152,163 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="35.7109375" style="16"/>
-    <col min="3" max="3" width="14.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="35.7109375" style="16"/>
+    <col min="1" max="2" width="35.7109375" style="15"/>
+    <col min="3" max="3" width="14.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="35.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>0.27900000000000003</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>0.502</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>-0.29099999999999998</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>0.246</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="42">
         <v>-0.79100000000000004</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>-0.156</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1316,200 +1322,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="35.7109375" style="16"/>
-    <col min="3" max="3" width="14.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="16" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="35.7109375" style="16"/>
+    <col min="1" max="2" width="35.7109375" style="15"/>
+    <col min="3" max="3" width="14.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="15.85546875" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="35.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="43">
         <v>1.169</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="42">
         <v>1.3280000000000001</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>0.21199999999999999</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="42">
         <v>1.3080000000000001</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>-0.17299999999999999</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>-0.26800000000000002</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1526,163 +1532,163 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="35.7109375" style="16"/>
-    <col min="3" max="3" width="14.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="35.7109375" style="16"/>
+    <col min="1" max="2" width="35.7109375" style="15"/>
+    <col min="3" max="3" width="14.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="35.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>0.21299999999999999</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>0.43</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="42">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>0.34499999999999997</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>0.38</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>-0.503</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F12" s="6" t="s">
@@ -1744,13 +1750,13 @@
       <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="37">
         <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="21" spans="6:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F21" s="40"/>
-      <c r="G21" s="40" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1760,6 +1766,7 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1767,69 +1774,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="35.7109375" style="16"/>
-    <col min="3" max="3" width="14.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="35.7109375" style="16"/>
+    <col min="1" max="2" width="35.7109375" style="15"/>
+    <col min="3" max="3" width="14.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="35.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>0.182</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1838,40 +1845,40 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>0.19700000000000001</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="42">
         <v>0.24299999999999999</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1880,69 +1887,69 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>5.5E-2</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="G11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1984,8 +1991,8 @@
     </row>
     <row r="16" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F16" s="6"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2003,11 +2010,11 @@
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F20" s="6"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="6:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="6:7" ht="24" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
